--- a/sazae.xlsx
+++ b/sazae.xlsx
@@ -486,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -518,6 +518,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -795,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M29"/>
+  <dimension ref="B1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -1811,6 +1812,12 @@
       </c>
       <c r="M29" s="26"/>
     </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="K30" s="31">
+        <f>SUM(K3:K29)</f>
+        <v>1316</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sazae.xlsx
+++ b/sazae.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,13 +107,19 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="30">
     <border>
@@ -486,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -519,6 +525,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -798,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -907,7 +916,7 @@
         <f t="shared" ref="K4:K29" si="0">SUM(E4:J4)</f>
         <v>48</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="32">
         <f t="shared" ref="L4:L5" si="1">K4/SUM($K$3:$K$5)*100</f>
         <v>51.612903225806448</v>
       </c>
@@ -1053,7 +1062,7 @@
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="33">
         <f t="shared" si="2"/>
         <v>53.714285714285715</v>
       </c>
@@ -1123,7 +1132,7 @@
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="32">
         <f t="shared" ref="L10:L11" si="3">K10/SUM($K$9:$K$11)*100</f>
         <v>55.414012738853501</v>
       </c>
@@ -1267,7 +1276,7 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="L14" s="18">
+      <c r="L14" s="33">
         <f t="shared" si="4"/>
         <v>49.723756906077348</v>
       </c>
@@ -1376,7 +1385,7 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="32">
         <f t="shared" si="5"/>
         <v>52.380952380952387</v>
       </c>
@@ -1410,7 +1419,7 @@
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
-      <c r="L18" s="16">
+      <c r="L18" s="34">
         <f>K18/SUM($K$18:$K$20)*100</f>
         <v>47.89473684210526</v>
       </c>
@@ -1553,7 +1562,7 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="32">
         <f t="shared" ref="L22:L23" si="7">K22/SUM($K$21:$K$23)*100</f>
         <v>49.668874172185426</v>
       </c>
@@ -1624,7 +1633,7 @@
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
-      <c r="L24" s="16">
+      <c r="L24" s="34">
         <f>K24/SUM($K$24:$K$26)*100</f>
         <v>53.061224489795919</v>
       </c>
@@ -1769,7 +1778,7 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L28" s="32">
         <f t="shared" ref="L28:L29" si="9">K28/SUM($K$27:$K$29)*100</f>
         <v>59.550561797752813</v>
       </c>
@@ -1813,10 +1822,7 @@
       <c r="M29" s="26"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="K30" s="31">
-        <f>SUM(K3:K29)</f>
-        <v>1316</v>
-      </c>
+      <c r="K30" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
